--- a/biology/Botanique/Bolesław_Hryniewiecki/Bolesław_Hryniewiecki.xlsx
+++ b/biology/Botanique/Bolesław_Hryniewiecki/Bolesław_Hryniewiecki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Boles%C5%82aw_Hryniewiecki</t>
+          <t>Bolesław_Hryniewiecki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolesław Leon Hryniewiecki (né le 20 février 1875 à Międzyrzec Podlaski (Pologne), mort le 13 février 1963 à Brwinów) est un savant polonais, botaniste, historien de la botanique et pédagogue. Il est le père de l'architecte Jerzy Hryniewiecki (de).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Boles%C5%82aw_Hryniewiecki</t>
+          <t>Bolesław_Hryniewiecki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1892, il achève sa scolarité au lycée russe de garçons de Lublin et entreprend des études en sciences naturelles à l'université impériale de Varsovie. En 1894, il participe à la manifestation en l'honneur de Jan Kiliński, ce qui lui vaut d'être renvoyé de l'université, emprisonné et déporté au fin fond de la Russie.
 En 1900, il achève ses études de mathématiques et de sciences naturelles à Dorpat. De 1914 à 1919, il exerce comme professeur de botanique à Odessa où il est aussi le directeur du jardin botanique. Il effectue une série de voyages de recherche scientifique vers l'Oural, le Caucase et en Arménie.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Boles%C5%82aw_Hryniewiecki</t>
+          <t>Bolesław_Hryniewiecki</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Zielnik i muzeum botaniczne, Wskazówki praktyczne: jak zbierać, preparować, konserwować, oznaczać rośliny i układać zbiory botaniczne (Herbier et musée botanique, indications pratiques : comment cueillir, préparer, conserver, nommer les plantes et classifier des collections botaniques ?), 1922.
 Précis de l'histoire de la botanique en Pologne, 1933  (en français)
